--- a/src/data/2019秋 011151.01成绩考核登记表_2019-9-5.xlsx
+++ b/src/data/2019秋 011151.01成绩考核登记表_2019-9-5.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="239">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="241">
   <si>
     <t>中国科学技术大学成绩考核登记表</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1052,6 +1052,14 @@
   </si>
   <si>
     <t>test</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PB17061250</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>test1</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1556,7 +1564,7 @@
   <dimension ref="A1:AA200"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A109" workbookViewId="0">
-      <selection activeCell="C116" sqref="C116"/>
+      <selection activeCell="G124" sqref="G124"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25"/>
@@ -5841,9 +5849,15 @@
       <c r="AA116" s="1"/>
     </row>
     <row r="117" spans="1:27" ht="16.5">
-      <c r="A117" s="1"/>
-      <c r="B117" s="1"/>
-      <c r="C117" s="1"/>
+      <c r="A117" s="1">
+        <v>111</v>
+      </c>
+      <c r="B117" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="C117" s="1" t="s">
+        <v>240</v>
+      </c>
       <c r="D117" s="1"/>
       <c r="E117" s="1"/>
       <c r="F117" s="1"/>
